--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sirbo\OneDrive\Documents\Class-Files\CS 620\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repositories\CS620Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDAEEBA-41EF-4D3F-83EE-9F6E70316A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F56887B-37B0-4849-BB31-C64309FA9564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16380" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Boston Celtics</t>
   </si>
@@ -123,9 +123,6 @@
     <t>LHG</t>
   </si>
   <si>
-    <t xml:space="preserve">WAG </t>
-  </si>
-  <si>
     <t>LAG</t>
   </si>
   <si>
@@ -148,6 +145,51 @@
   </si>
   <si>
     <t>Teams</t>
+  </si>
+  <si>
+    <t>Defensive Effiency for Home Games</t>
+  </si>
+  <si>
+    <t>Defensive Effiency for Away Games</t>
+  </si>
+  <si>
+    <t>Free Throw Percentage for Home Games</t>
+  </si>
+  <si>
+    <t>Free Throw Percentage for Away Games</t>
+  </si>
+  <si>
+    <t>Offensive Effiency for Home Games</t>
+  </si>
+  <si>
+    <t>Offensive Effiency for Away Games</t>
+  </si>
+  <si>
+    <t>Turnovers for Home Games</t>
+  </si>
+  <si>
+    <t>Turnovers for Away Games</t>
+  </si>
+  <si>
+    <t>THG</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>Wins for Home Games</t>
+  </si>
+  <si>
+    <t>Losses for Home Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wins for Away Games </t>
+  </si>
+  <si>
+    <t>Losses for Away Games</t>
+  </si>
+  <si>
+    <t>WAG</t>
   </si>
 </sst>
 </file>
@@ -191,8 +233,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,116 +541,133 @@
     <col min="9" max="9" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>23</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>1.0349999999999999</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>1.036</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>81.5</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>80.7</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>1.097</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>1.1020000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="L3" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1.069</v>
-      </c>
-      <c r="G3">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="H3">
-        <v>82.8</v>
-      </c>
-      <c r="I3">
-        <v>82.1</v>
-      </c>
-      <c r="J3">
-        <v>1.105</v>
-      </c>
-      <c r="K3">
-        <v>1.093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -611,39 +676,45 @@
         <v>17</v>
       </c>
       <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1.069</v>
+      </c>
+      <c r="G4">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="H4">
+        <v>82.8</v>
+      </c>
+      <c r="I4">
+        <v>82.1</v>
+      </c>
+      <c r="J4">
+        <v>1.105</v>
+      </c>
+      <c r="K4">
+        <v>1.093</v>
+      </c>
+      <c r="L4" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="M4" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="C5">
         <v>17</v>
-      </c>
-      <c r="F4">
-        <v>1.073</v>
-      </c>
-      <c r="G4">
-        <v>1.075</v>
-      </c>
-      <c r="H4">
-        <v>75.2</v>
-      </c>
-      <c r="I4">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="J4">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="K4">
-        <v>1.073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -652,97 +723,115 @@
         <v>17</v>
       </c>
       <c r="F5">
+        <v>1.073</v>
+      </c>
+      <c r="G5">
+        <v>1.075</v>
+      </c>
+      <c r="H5">
+        <v>75.2</v>
+      </c>
+      <c r="I5">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J5">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="K5">
+        <v>1.073</v>
+      </c>
+      <c r="L5" s="5">
+        <v>12.1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
         <v>1.0920000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>1.0940000000000001</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>79.900000000000006</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>80.099999999999994</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>1.073</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>1.1259999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="L6" s="5">
+        <v>15.1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>1.073</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1.0660000000000001</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>73.900000000000006</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>74.8</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>1.0580000000000001</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>1.079</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="L7" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="G7">
-        <v>1.081</v>
-      </c>
-      <c r="H7">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="I7">
-        <v>76.5</v>
-      </c>
-      <c r="J7">
-        <v>1.103</v>
-      </c>
-      <c r="K7">
-        <v>1.1060000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>27</v>
@@ -751,39 +840,45 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F8">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.081</v>
+      </c>
+      <c r="H8">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I8">
+        <v>76.5</v>
+      </c>
+      <c r="J8">
         <v>1.103</v>
       </c>
-      <c r="G8">
-        <v>1.101</v>
-      </c>
-      <c r="H8">
-        <v>81</v>
-      </c>
-      <c r="I8">
-        <v>81.8</v>
-      </c>
-      <c r="J8">
-        <v>1.113</v>
-      </c>
       <c r="K8">
-        <v>1.0680000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="L8" s="5">
+        <v>13</v>
+      </c>
+      <c r="M8" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>19</v>
@@ -792,792 +887,971 @@
         <v>22</v>
       </c>
       <c r="F9">
+        <v>1.103</v>
+      </c>
+      <c r="G9">
+        <v>1.101</v>
+      </c>
+      <c r="H9">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>81.8</v>
+      </c>
+      <c r="J9">
+        <v>1.113</v>
+      </c>
+      <c r="K9">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="L9" s="5">
+        <v>11.9</v>
+      </c>
+      <c r="M9" s="5">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10">
         <v>1.0449999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1.085</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>74.8</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>77.599999999999994</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>1.087</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>1.0820000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="L10" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="M10" s="5">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>1.1220000000000001</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>1.1259999999999999</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>77.599999999999994</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>76</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>1.117</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>1.0629999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="L11" s="5">
+        <v>14.2</v>
+      </c>
+      <c r="M11" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>31</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>1.079</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>1.1220000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>79.5</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>77</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>1.0289999999999999</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>1.022</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="L12" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>24</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>1.0509999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>1.0529999999999999</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>81</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>80.400000000000006</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>1.109</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>1.081</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="L13" s="5">
+        <v>14</v>
+      </c>
+      <c r="M13" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>27</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>1.1040000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>81.3</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>80.7</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>1.151</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>1.0960000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="L14" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="M14" s="5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>19</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>21</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>1.08</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>1.129</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>72.3</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>75.8</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1.0940000000000001</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>1.117</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="L15" s="5">
+        <v>14</v>
+      </c>
+      <c r="M15" s="5">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>14</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>27</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>1.1040000000000001</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>1.1180000000000001</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>78.8</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>77.900000000000006</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>1.0980000000000001</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>1.0569999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="L16" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="M16" s="5">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>29</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>31</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>1.0920000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>1.0920000000000001</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>79</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>78.400000000000006</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>1.0129999999999999</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>1.0149999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="L17" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="M17" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>21</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>1.0569999999999999</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>1.089</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>76.2</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>77.7</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>1.1459999999999999</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>1.1040000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="L18" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="M18" s="5">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>25</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>16</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>1.109</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>1.0820000000000001</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>80.099999999999994</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>78.900000000000006</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>1.131</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>1.0940000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="L19" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="M19" s="5">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>26</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>1.0409999999999999</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>1.119</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>76.099999999999994</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>79.599999999999994</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>1.0820000000000001</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>1.1180000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="L20" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>24</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>31</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>1.1160000000000001</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>1.149</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>77.7</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>74.3</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>1.0669999999999999</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>1.0229999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="L21" s="5">
+        <v>14</v>
+      </c>
+      <c r="M21" s="5">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>29</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>29</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>1.0920000000000001</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>1.097</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>76.2</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>74.900000000000006</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>1.03</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>1.002</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="L22" s="5">
+        <v>14</v>
+      </c>
+      <c r="M22" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>32</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>32</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>1.048</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>1.0589999999999999</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>78.900000000000006</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>81</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="L23" s="5">
+        <v>13</v>
+      </c>
+      <c r="M23" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>22</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>19</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>1.012</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>1.075</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>77</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>76.599999999999994</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>1.1140000000000001</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>1.077</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="L24" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="M24" s="5">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>16</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>24</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>1.0589999999999999</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>1.08</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>79.900000000000006</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>77.900000000000006</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>1.081</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>1.0549999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="L25" s="5">
+        <v>14</v>
+      </c>
+      <c r="M25" s="5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>21</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>20</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>29</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>1.075</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>1.1259999999999999</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>71.900000000000006</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>74.599999999999994</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>1.07</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="L26" s="5">
+        <v>14.6</v>
+      </c>
+      <c r="M26" s="5">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>25</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>27</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>1.111</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1.127</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>78.099999999999994</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>75.599999999999994</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>1.0720000000000001</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>1.0609999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="L27" s="5">
+        <v>14.3</v>
+      </c>
+      <c r="M27" s="5">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>30</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>11</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>1.034</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>1.069</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>73.7</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>73.2</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>1.123</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>1.081</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="L28" s="5">
+        <v>12.9</v>
+      </c>
+      <c r="M28" s="5">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>23</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>18</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>1.0389999999999999</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>1.099</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>76.099999999999994</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>78.099999999999994</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>1.1080000000000001</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="L29" s="5">
+        <v>11.3</v>
+      </c>
+      <c r="M29" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>22</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>17</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>24</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>1.0960000000000001</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>1.097</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>79.599999999999994</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>77.3</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>1.1120000000000001</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>1.0649999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="L30" s="5">
+        <v>13.9</v>
+      </c>
+      <c r="M30" s="5">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>25</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>18</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>23</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>1.1040000000000001</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>1.075</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>73.8</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>77.2</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>1.103</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>1.077</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="L31" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="M31" s="5">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>30</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>9</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>32</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>1.1319999999999999</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>71.900000000000006</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>70.08</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>1.0669999999999999</v>
       </c>
-      <c r="K31">
+      <c r="K32">
         <v>1.0329999999999999</v>
+      </c>
+      <c r="L32" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="M32" s="5">
+        <v>17.2</v>
       </c>
     </row>
   </sheetData>
